--- a/ONESMUS KARIUKI.xlsx
+++ b/ONESMUS KARIUKI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>ONESMSUS</t>
+  </si>
+  <si>
+    <t>ARREARS</t>
+  </si>
+  <si>
+    <t>PAIN ON 14/12</t>
   </si>
 </sst>
 </file>
@@ -751,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +837,9 @@
       <c r="H5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="48" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -841,15 +849,19 @@
         <v>36</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>2000</v>
+      </c>
       <c r="E6" s="12">
         <v>5000</v>
       </c>
       <c r="F6" s="12">
         <f>C6+D6+E6</f>
-        <v>5000</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>7000</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2000</v>
+      </c>
       <c r="H6" s="13">
         <f>F6-G6</f>
         <v>5000</v>
@@ -865,17 +877,15 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="12">
-        <v>5000</v>
-      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="12">
         <f t="shared" ref="F7:F9" si="0">C7+D7+E7</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13">
         <f t="shared" ref="H7:H13" si="1">F7-G7</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -887,15 +897,19 @@
         <v>38</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>5000</v>
+      </c>
       <c r="E8" s="12">
         <v>5000</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G8" s="12">
         <v>5000</v>
       </c>
-      <c r="G8" s="12"/>
       <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -910,20 +924,26 @@
         <v>39</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>1000</v>
+      </c>
       <c r="E9" s="12">
         <v>5000</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="G9" s="12"/>
+        <v>6000</v>
+      </c>
+      <c r="G9" s="12">
+        <v>6000</v>
+      </c>
       <c r="H9" s="13">
         <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -941,10 +961,12 @@
         <f>C10+D10+E10</f>
         <v>5000</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12">
+        <v>5000</v>
+      </c>
       <c r="H10" s="13">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11"/>
     </row>
@@ -983,16 +1005,18 @@
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="12">
         <f>C12+D12+E12</f>
-        <v>5000</v>
-      </c>
-      <c r="G12" s="12"/>
+        <v>6000</v>
+      </c>
+      <c r="G12" s="12">
+        <v>6000</v>
+      </c>
       <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -1004,22 +1028,26 @@
         <v>43</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>8000</v>
+      </c>
       <c r="E13" s="12">
         <v>5000</v>
       </c>
       <c r="F13" s="12">
         <f>C13+D13+E13</f>
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="G13" s="12">
         <v>5000</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
+        <v>8000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2500</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
@@ -1098,22 +1126,25 @@
       </c>
       <c r="D20" s="11">
         <f>SUM(D6:D19)</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="E20" s="23">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13">
         <f>SUM(H6:H19)</f>
-        <v>30000</v>
-      </c>
-      <c r="I20" s="11"/>
+        <v>18000</v>
+      </c>
+      <c r="I20" s="11">
+        <f>SUM(I6:I19)</f>
+        <v>3500</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G21" s="12"/>
@@ -1184,7 +1215,7 @@
       </c>
       <c r="B26" s="34">
         <f>E20</f>
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -1192,8 +1223,8 @@
         <v>28</v>
       </c>
       <c r="F26" s="34">
-        <f>G20</f>
-        <v>0</v>
+        <f>H20</f>
+        <v>18000</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -1215,10 +1246,12 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="B28" s="34">
         <f>I20</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -1250,7 +1283,7 @@
       </c>
       <c r="C30" s="34">
         <f>B30*B26</f>
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -1261,7 +1294,7 @@
       </c>
       <c r="G30" s="34">
         <f>F30*B26</f>
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="3"/>
@@ -1306,13 +1339,21 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="B34" s="35"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="22">
+        <v>33400</v>
+      </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="36"/>
+      <c r="E34" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="35"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="22">
+        <v>33400</v>
+      </c>
       <c r="H34" s="22"/>
       <c r="I34" s="3"/>
     </row>
@@ -1355,30 +1396,30 @@
       </c>
       <c r="B38" s="41">
         <f>B29+B26+B27+B28-C30</f>
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="C38" s="41">
         <f>SUM(C32:C37)</f>
-        <v>0</v>
+        <v>33400</v>
       </c>
       <c r="D38" s="41">
         <f>B38-C38</f>
-        <v>36000</v>
+        <v>2500</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="41">
         <f>F26+F27+F29+F28-G30</f>
-        <v>-4000</v>
+        <v>14400</v>
       </c>
       <c r="G38" s="41">
         <f>SUM(G32:G37)</f>
-        <v>0</v>
+        <v>33400</v>
       </c>
       <c r="H38" s="41">
         <f>F38-G38</f>
-        <v>-4000</v>
+        <v>-19000</v>
       </c>
       <c r="I38" s="42"/>
     </row>
